--- a/data/input/imp_incides.xlsx
+++ b/data/input/imp_incides.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cogencisin-my.sharepoint.com/personal/kaustubh_keny_cogencis_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cogencisin-my.sharepoint.com/personal/kaustubh_keny_cogencis_com/Documents/Documents/mywork-repo/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{831C41EF-C9A4-4AE5-9756-1ACA682A2050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16653CBF-FA60-40E2-96A1-AC77450377BC}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{831C41EF-C9A4-4AE5-9756-1ACA682A2050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBBCF3F0-BE49-4CB8-B6AA-5B8BC9EA1CCD}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{F769E322-A50A-409F-93EB-197A51879E39}"/>
+    <workbookView xWindow="7425" yWindow="0" windowWidth="13170" windowHeight="10905" xr2:uid="{F769E322-A50A-409F-93EB-197A51879E39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -184,27 +184,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -213,8 +198,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,207 +536,207 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D18D56-FD78-4F61-9B51-009C292CCBC1}">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/data/input/imp_incides.xlsx
+++ b/data/input/imp_incides.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cogencisin-my.sharepoint.com/personal/kaustubh_keny_cogencis_com/Documents/Documents/mywork-repo/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{831C41EF-C9A4-4AE5-9756-1ACA682A2050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBBCF3F0-BE49-4CB8-B6AA-5B8BC9EA1CCD}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{831C41EF-C9A4-4AE5-9756-1ACA682A2050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5A419EA-2E6F-429E-88F1-0DA284381A06}"/>
   <bookViews>
-    <workbookView xWindow="7425" yWindow="0" windowWidth="13170" windowHeight="10905" xr2:uid="{F769E322-A50A-409F-93EB-197A51879E39}"/>
+    <workbookView xWindow="5205" yWindow="0" windowWidth="15285" windowHeight="9795" xr2:uid="{F769E322-A50A-409F-93EB-197A51879E39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Scheme Objective</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>Fields In Factsheet</t>
+  </si>
+  <si>
+    <t>Modified Duraon</t>
+  </si>
+  <si>
+    <t>Macaulay Duraon</t>
+  </si>
+  <si>
+    <t>Standard Deviaon</t>
+  </si>
+  <si>
+    <t>Beta</t>
   </si>
 </sst>
 </file>
@@ -196,10 +208,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -215,6 +226,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,210 +549,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D18D56-FD78-4F61-9B51-009C292CCBC1}">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
